--- a/attendance_reports/Y4_B2526_General_&_Special_surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_surgery_1_B1_attendance.xlsx
@@ -9,10 +9,12 @@
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Attendance" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transfers" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BS$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Transfers'!$A$1:$G$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -31407,12 +31409,12 @@
     <row r="134" ht="20" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>221568</t>
+          <t>221709</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>عبدالله الصادق عبدالله محمد</t>
+          <t>يقين ناصر الشريف</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -31422,12 +31424,12 @@
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1C1</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>221568@med.asu.edu.eg</t>
+          <t>221709@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F134" s="4" t="inlineStr">
@@ -31638,12 +31640,12 @@
     <row r="135" ht="20" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>221581</t>
+          <t>221568</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>عمار بدرالدين محمد نور حمد</t>
+          <t>عبدالله الصادق عبدالله محمد</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -31658,7 +31660,7 @@
       </c>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>221581@med.asu.edu.eg</t>
+          <t>221568@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F135" s="4" t="inlineStr">
@@ -31869,12 +31871,12 @@
     <row r="136" ht="20" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>221581</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>شهد صلاح جعفر الشيخ ادريس</t>
+          <t>عمار بدرالدين محمد نور حمد</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -31889,7 +31891,7 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>221582@med.asu.edu.eg</t>
+          <t>221581@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
@@ -32100,12 +32102,12 @@
     <row r="137" ht="20" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>221585</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>محمد احمد حسان عبد الهادى</t>
+          <t>شهد صلاح جعفر الشيخ ادريس</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -32120,7 +32122,7 @@
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>221585@med.asu.edu.eg</t>
+          <t>221582@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
@@ -32331,12 +32333,12 @@
     <row r="138" ht="20" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>221591</t>
+          <t>221585</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>فراس نجم الدين فضل احمد</t>
+          <t>محمد احمد حسان عبد الهادى</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -32351,7 +32353,7 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>221591@med.asu.edu.eg</t>
+          <t>221585@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr">
@@ -32562,12 +32564,12 @@
     <row r="139" ht="20" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>221592</t>
+          <t>221591</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>مهدي عارف عمر حبابه</t>
+          <t>فراس نجم الدين فضل احمد</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -32582,7 +32584,7 @@
       </c>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t>221592@med.asu.edu.eg</t>
+          <t>221591@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F139" s="4" t="inlineStr">
@@ -32793,12 +32795,12 @@
     <row r="140" ht="20" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>221594</t>
+          <t>221592</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>مصطفى احمد حوا</t>
+          <t>مهدي عارف عمر حبابه</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -32813,7 +32815,7 @@
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>221594@med.asu.edu.eg</t>
+          <t>221592@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F140" s="4" t="inlineStr">
@@ -33024,12 +33026,12 @@
     <row r="141" ht="20" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>221595</t>
+          <t>221594</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>عثمان عبد الله فرحان</t>
+          <t>مصطفى احمد حوا</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -33044,7 +33046,7 @@
       </c>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>221595@med.asu.edu.eg</t>
+          <t>221594@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F141" s="4" t="inlineStr">
@@ -33255,12 +33257,12 @@
     <row r="142" ht="20" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>221596</t>
+          <t>221595</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>طيف عبود بشير محمد</t>
+          <t>عثمان عبد الله فرحان</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -33275,7 +33277,7 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>221596@med.asu.edu.eg</t>
+          <t>221595@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F142" s="4" t="inlineStr">
@@ -33486,12 +33488,12 @@
     <row r="143" ht="20" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>221603</t>
+          <t>221596</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>محمد نصرالدين محمد خليفة</t>
+          <t>طيف عبود بشير محمد</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
@@ -33506,7 +33508,7 @@
       </c>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>221603@med.asu.edu.eg</t>
+          <t>221596@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F143" s="4" t="inlineStr">
@@ -33717,12 +33719,12 @@
     <row r="144" ht="20" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>221605</t>
+          <t>221603</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>يمنى عماد يسن محمود</t>
+          <t>محمد نصرالدين محمد خليفة</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -33737,7 +33739,7 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>221605@med.asu.edu.eg</t>
+          <t>221603@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F144" s="4" t="inlineStr">
@@ -33948,12 +33950,12 @@
     <row r="145" ht="20" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>221608</t>
+          <t>221605</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>فريد محمد فراس قاوجي</t>
+          <t>يمنى عماد يسن محمود</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -33968,7 +33970,7 @@
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>221608@med.asu.edu.eg</t>
+          <t>221605@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F145" s="4" t="inlineStr">
@@ -34179,12 +34181,12 @@
     <row r="146" ht="20" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>221615</t>
+          <t>221608</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>علي خالد محمد ابو عيده</t>
+          <t>فريد محمد فراس قاوجي</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -34199,7 +34201,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>221615@med.asu.edu.eg</t>
+          <t>221608@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F146" s="4" t="inlineStr">
@@ -34410,12 +34412,12 @@
     <row r="147" ht="20" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>221616</t>
+          <t>221615</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>محمد عمر عبدالباري عبدالواحد</t>
+          <t>علي خالد محمد ابو عيده</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -34430,7 +34432,7 @@
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>221616@med.asu.edu.eg</t>
+          <t>221615@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F147" s="4" t="inlineStr">
@@ -34641,12 +34643,12 @@
     <row r="148" ht="20" customHeight="1">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>221621</t>
+          <t>221616</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>عبدالرحمن مصطفى حاج حسين</t>
+          <t>محمد عمر عبدالباري عبدالواحد</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -34661,7 +34663,7 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>221621@med.asu.edu.eg</t>
+          <t>221616@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F148" s="4" t="inlineStr">
@@ -34872,12 +34874,12 @@
     <row r="149" ht="20" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>221624</t>
+          <t>221621</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>ميسم الزاكى الياس احمدون</t>
+          <t>عبدالرحمن مصطفى حاج حسين</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -34892,7 +34894,7 @@
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>221624@med.asu.edu.eg</t>
+          <t>221621@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F149" s="4" t="inlineStr">
@@ -35103,12 +35105,12 @@
     <row r="150" ht="20" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>221627</t>
+          <t>221624</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>جودى عدنان رسلان</t>
+          <t>ميسم الزاكى الياس احمدون</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -35123,7 +35125,7 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>221627@med.asu.edu.eg</t>
+          <t>221624@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr">
@@ -35334,12 +35336,12 @@
     <row r="151" ht="20" customHeight="1">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>221628</t>
+          <t>221627</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>ريم احمد غزال</t>
+          <t>جودى عدنان رسلان</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -35354,7 +35356,7 @@
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>221628@med.asu.edu.eg</t>
+          <t>221627@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F151" s="4" t="inlineStr">
@@ -35565,12 +35567,12 @@
     <row r="152" ht="20" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>221633</t>
+          <t>221628</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>نمارق شيخ الدين محمد ادم</t>
+          <t>ريم احمد غزال</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -35585,7 +35587,7 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>221633@med.asu.edu.eg</t>
+          <t>221628@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F152" s="4" t="inlineStr">
@@ -35796,12 +35798,12 @@
     <row r="153" ht="20" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>221641</t>
+          <t>221633</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>حنين احمد محمد الزق</t>
+          <t>نمارق شيخ الدين محمد ادم</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
@@ -35816,7 +35818,7 @@
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>221641@med.asu.edu.eg</t>
+          <t>221633@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F153" s="4" t="inlineStr">
@@ -40878,12 +40880,12 @@
     <row r="175" ht="20" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>221709</t>
+          <t>221711</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>يقين ناصر الشريف</t>
+          <t>وسيم رجب محمود حسين عياد</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -40898,7 +40900,7 @@
       </c>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>221709@med.asu.edu.eg</t>
+          <t>221711@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F175" s="4" t="inlineStr">
@@ -41109,12 +41111,12 @@
     <row r="176" ht="20" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>221711</t>
+          <t>221712</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>وسيم رجب محمود حسين عياد</t>
+          <t>بتول ابراهيم يوسف الزيناتي</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -41129,7 +41131,7 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>221711@med.asu.edu.eg</t>
+          <t>221712@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F176" s="4" t="inlineStr">
@@ -41340,12 +41342,12 @@
     <row r="177" ht="20" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>221712</t>
+          <t>221713</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>بتول ابراهيم يوسف الزيناتي</t>
+          <t>عبق الطيب الامين عبد الماجد</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
@@ -41360,7 +41362,7 @@
       </c>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>221712@med.asu.edu.eg</t>
+          <t>221713@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F177" s="4" t="inlineStr">
@@ -41571,12 +41573,12 @@
     <row r="178" ht="20" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>221713</t>
+          <t>221716</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>عبق الطيب الامين عبد الماجد</t>
+          <t>على الحسن</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -41591,7 +41593,7 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>221713@med.asu.edu.eg</t>
+          <t>221716@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F178" s="4" t="inlineStr">
@@ -41802,12 +41804,12 @@
     <row r="179" ht="20" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>221716</t>
+          <t>221719</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>على الحسن</t>
+          <t>مروان محمد فتحى محمد</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -41822,7 +41824,7 @@
       </c>
       <c r="E179" s="3" t="inlineStr">
         <is>
-          <t>221716@med.asu.edu.eg</t>
+          <t>221719@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F179" s="4" t="inlineStr">
@@ -42033,12 +42035,12 @@
     <row r="180" ht="20" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>221719</t>
+          <t>221722</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>مروان محمد فتحى محمد</t>
+          <t>بتول باسم قاووق</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -42053,7 +42055,7 @@
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>221719@med.asu.edu.eg</t>
+          <t>221722@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F180" s="4" t="inlineStr">
@@ -42264,12 +42266,12 @@
     <row r="181" ht="20" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>221722</t>
+          <t>221729</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>بتول باسم قاووق</t>
+          <t>حسين احمد حسين الحسن</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -42284,7 +42286,7 @@
       </c>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>221722@med.asu.edu.eg</t>
+          <t>221729@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F181" s="4" t="inlineStr">
@@ -42495,12 +42497,12 @@
     <row r="182" ht="20" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>221729</t>
+          <t>221740</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>حسين احمد حسين الحسن</t>
+          <t>عبد الرزاق مهد يوسف</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -42515,7 +42517,7 @@
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>221729@med.asu.edu.eg</t>
+          <t>221740@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F182" s="4" t="inlineStr">
@@ -42726,12 +42728,12 @@
     <row r="183" ht="20" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>221740</t>
+          <t>221745</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>عبد الرزاق مهد يوسف</t>
+          <t>لينة عبدالعظيم احمد سيد</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -42746,7 +42748,7 @@
       </c>
       <c r="E183" s="3" t="inlineStr">
         <is>
-          <t>221740@med.asu.edu.eg</t>
+          <t>221745@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F183" s="4" t="inlineStr">
@@ -42957,12 +42959,12 @@
     <row r="184" ht="20" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>221745</t>
+          <t>221751</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>لينة عبدالعظيم احمد سيد</t>
+          <t>محمد محمود درويش ابو سريه</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -42977,7 +42979,7 @@
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>221745@med.asu.edu.eg</t>
+          <t>221751@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F184" s="4" t="inlineStr">
@@ -43188,12 +43190,12 @@
     <row r="185" ht="20" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>221751</t>
+          <t>221752</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>محمد محمود درويش ابو سريه</t>
+          <t>نبا ابراهيم الزعبى</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
@@ -43208,7 +43210,7 @@
       </c>
       <c r="E185" s="3" t="inlineStr">
         <is>
-          <t>221751@med.asu.edu.eg</t>
+          <t>221752@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F185" s="4" t="inlineStr">
@@ -43419,12 +43421,12 @@
     <row r="186" ht="20" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>221752</t>
+          <t>221641</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>نبا ابراهيم الزعبى</t>
+          <t>حنين احمد محمد الزق</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -43434,12 +43436,12 @@
       </c>
       <c r="D186" s="3" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>221752@med.asu.edu.eg</t>
+          <t>221641@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F186" s="4" t="inlineStr">
@@ -74698,4 +74700,137 @@
   <autoFilter ref="A1:K1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Group Before</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Group After</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>Transfer Date</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>221641</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>حنين احمد محمد الزق</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>New Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>221709</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>يقين ناصر الشريف</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>B1C1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>New Transfer</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/attendance_reports/Y4_B2526_General_&_Special_surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_surgery_1_B1_attendance.xlsx
@@ -74725,7 +74725,7 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
@@ -74793,7 +74793,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -74825,7 +74825,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_surgery_1_B1_attendance.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$AR$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Transfers'!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Transfers'!$A$1:$G$11</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -24599,12 +24599,12 @@
     <row r="120" ht="20" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>221516</t>
+          <t>221519</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>فاطمه عبدالحفيظ محمد صالح</t>
+          <t>رغد شادي محسن خصروف</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -24619,7 +24619,7 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>221516@med.asu.edu.eg</t>
+          <t>221519@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F120" s="4" t="inlineStr">
@@ -24801,12 +24801,12 @@
     <row r="121" ht="20" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>221519</t>
+          <t>221526</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>رغد شادي محسن خصروف</t>
+          <t>رزان محمد الصادق على الشيخ</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
@@ -24821,7 +24821,7 @@
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>221519@med.asu.edu.eg</t>
+          <t>221526@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F121" s="4" t="inlineStr">
@@ -25003,12 +25003,12 @@
     <row r="122" ht="20" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>221526</t>
+          <t>221529</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>رزان محمد الصادق على الشيخ</t>
+          <t>شهد بدرالدين مصطفى حسين</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -25023,7 +25023,7 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>221526@med.asu.edu.eg</t>
+          <t>221529@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F122" s="4" t="inlineStr">
@@ -25205,12 +25205,12 @@
     <row r="123" ht="20" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>221529</t>
+          <t>221532</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>شهد بدرالدين مصطفى حسين</t>
+          <t>عائشة عمر عثمان نورى</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -25225,7 +25225,7 @@
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>221529@med.asu.edu.eg</t>
+          <t>221532@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F123" s="4" t="inlineStr">
@@ -25407,12 +25407,12 @@
     <row r="124" ht="20" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>221532</t>
+          <t>221533</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>عائشة عمر عثمان نورى</t>
+          <t>عمر محمد الصديق احمد</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -25427,7 +25427,7 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>221532@med.asu.edu.eg</t>
+          <t>221533@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F124" s="4" t="inlineStr">
@@ -25609,12 +25609,12 @@
     <row r="125" ht="20" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>221533</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>عمر محمد الصديق احمد</t>
+          <t>يوسف عماد محمد سيد احمد حبرك</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -25629,7 +25629,7 @@
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>221533@med.asu.edu.eg</t>
+          <t>221535@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F125" s="4" t="inlineStr">
@@ -25811,12 +25811,12 @@
     <row r="126" ht="20" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>221538</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>يوسف عماد محمد سيد احمد حبرك</t>
+          <t>براءه عبدالرحمن عباس عبدالصمد صالح</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -25831,7 +25831,7 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>221535@med.asu.edu.eg</t>
+          <t>221538@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F126" s="4" t="inlineStr">
@@ -26013,12 +26013,12 @@
     <row r="127" ht="20" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>221538</t>
+          <t>221542</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>براءه عبدالرحمن عباس عبدالصمد صالح</t>
+          <t>اريام عمر الخضير</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
@@ -26033,7 +26033,7 @@
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>221538@med.asu.edu.eg</t>
+          <t>221542@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F127" s="4" t="inlineStr">
@@ -26215,12 +26215,12 @@
     <row r="128" ht="20" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>221542</t>
+          <t>221547</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>اريام عمر الخضير</t>
+          <t>على محسن على عبدالكريم</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -26235,7 +26235,7 @@
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>221542@med.asu.edu.eg</t>
+          <t>221547@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F128" s="4" t="inlineStr">
@@ -26417,12 +26417,12 @@
     <row r="129" ht="20" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>221547</t>
+          <t>221548</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>على محسن على عبدالكريم</t>
+          <t>مريم احمد صباغ</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -26437,7 +26437,7 @@
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>221547@med.asu.edu.eg</t>
+          <t>221548@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F129" s="4" t="inlineStr">
@@ -26619,12 +26619,12 @@
     <row r="130" ht="20" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>221548</t>
+          <t>221552</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>مريم احمد صباغ</t>
+          <t>عمر سامي زكريا الغرابلي</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -26639,7 +26639,7 @@
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>221548@med.asu.edu.eg</t>
+          <t>221552@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F130" s="4" t="inlineStr">
@@ -26821,12 +26821,12 @@
     <row r="131" ht="20" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>221552</t>
+          <t>221556</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>عمر سامي زكريا الغرابلي</t>
+          <t>حازم اسامه شحاده</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -26841,7 +26841,7 @@
       </c>
       <c r="E131" s="3" t="inlineStr">
         <is>
-          <t>221552@med.asu.edu.eg</t>
+          <t>221556@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F131" s="4" t="inlineStr">
@@ -27023,12 +27023,12 @@
     <row r="132" ht="20" customHeight="1">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>221556</t>
+          <t>221560</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>حازم اسامه شحاده</t>
+          <t>شام خالد درويش</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -27043,7 +27043,7 @@
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>221556@med.asu.edu.eg</t>
+          <t>221560@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F132" s="4" t="inlineStr">
@@ -27225,12 +27225,12 @@
     <row r="133" ht="20" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>221560</t>
+          <t>221707</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>شام خالد درويش</t>
+          <t>يمنى فيصل محمد عبدون</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -27245,7 +27245,7 @@
       </c>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>221560@med.asu.edu.eg</t>
+          <t>221707@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F133" s="4" t="inlineStr">
@@ -27629,12 +27629,12 @@
     <row r="135" ht="20" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>221568</t>
+          <t>221719</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>عبدالله الصادق عبدالله محمد</t>
+          <t>مروان محمد فتحى محمد</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -27644,12 +27644,12 @@
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1C1</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>221568@med.asu.edu.eg</t>
+          <t>221719@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F135" s="4" t="inlineStr">
@@ -27831,12 +27831,12 @@
     <row r="136" ht="20" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>221581</t>
+          <t>221872</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>عمار بدرالدين محمد نور حمد</t>
+          <t>رهف الصادق محمد حسن</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -27846,12 +27846,12 @@
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1C1</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>221581@med.asu.edu.eg</t>
+          <t>221872@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
@@ -28033,12 +28033,12 @@
     <row r="137" ht="20" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>221913</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>شهد صلاح جعفر الشيخ ادريس</t>
+          <t>رشا حسن محمد حاج محمد احمد</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -28048,12 +28048,12 @@
       </c>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1C1</t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>221582@med.asu.edu.eg</t>
+          <t>221913@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
@@ -28235,12 +28235,12 @@
     <row r="138" ht="20" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>221585</t>
+          <t>221568</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>محمد احمد حسان عبد الهادى</t>
+          <t>عبدالله الصادق عبدالله محمد</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -28255,7 +28255,7 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>221585@med.asu.edu.eg</t>
+          <t>221568@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr">
@@ -28437,12 +28437,12 @@
     <row r="139" ht="20" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>221591</t>
+          <t>221581</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>فراس نجم الدين فضل احمد</t>
+          <t>عمار بدرالدين محمد نور حمد</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -28457,7 +28457,7 @@
       </c>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t>221591@med.asu.edu.eg</t>
+          <t>221581@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F139" s="4" t="inlineStr">
@@ -28639,12 +28639,12 @@
     <row r="140" ht="20" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>221592</t>
+          <t>221585</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>مهدي عارف عمر حبابه</t>
+          <t>محمد احمد حسان عبد الهادى</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -28659,7 +28659,7 @@
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>221592@med.asu.edu.eg</t>
+          <t>221585@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F140" s="4" t="inlineStr">
@@ -28841,12 +28841,12 @@
     <row r="141" ht="20" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>221594</t>
+          <t>221591</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>مصطفى احمد حوا</t>
+          <t>فراس نجم الدين فضل احمد</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -28861,7 +28861,7 @@
       </c>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>221594@med.asu.edu.eg</t>
+          <t>221591@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F141" s="4" t="inlineStr">
@@ -29043,12 +29043,12 @@
     <row r="142" ht="20" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>221595</t>
+          <t>221592</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>عثمان عبد الله فرحان</t>
+          <t>مهدي عارف عمر حبابه</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -29063,7 +29063,7 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>221595@med.asu.edu.eg</t>
+          <t>221592@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F142" s="4" t="inlineStr">
@@ -29245,12 +29245,12 @@
     <row r="143" ht="20" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>221596</t>
+          <t>221594</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>طيف عبود بشير محمد</t>
+          <t>مصطفى احمد حوا</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
@@ -29265,7 +29265,7 @@
       </c>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>221596@med.asu.edu.eg</t>
+          <t>221594@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F143" s="4" t="inlineStr">
@@ -29447,12 +29447,12 @@
     <row r="144" ht="20" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>221603</t>
+          <t>221595</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>محمد نصرالدين محمد خليفة</t>
+          <t>عثمان عبد الله فرحان</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -29467,7 +29467,7 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>221603@med.asu.edu.eg</t>
+          <t>221595@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F144" s="4" t="inlineStr">
@@ -29649,12 +29649,12 @@
     <row r="145" ht="20" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>221605</t>
+          <t>221596</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>يمنى عماد يسن محمود</t>
+          <t>طيف عبود بشير محمد</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -29669,7 +29669,7 @@
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>221605@med.asu.edu.eg</t>
+          <t>221596@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F145" s="4" t="inlineStr">
@@ -29851,12 +29851,12 @@
     <row r="146" ht="20" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>221608</t>
+          <t>221603</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>فريد محمد فراس قاوجي</t>
+          <t>محمد نصرالدين محمد خليفة</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -29871,7 +29871,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>221608@med.asu.edu.eg</t>
+          <t>221603@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F146" s="4" t="inlineStr">
@@ -30053,12 +30053,12 @@
     <row r="147" ht="20" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>221615</t>
+          <t>221605</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>علي خالد محمد ابو عيده</t>
+          <t>يمنى عماد يسن محمود</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -30073,7 +30073,7 @@
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>221615@med.asu.edu.eg</t>
+          <t>221605@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F147" s="4" t="inlineStr">
@@ -30255,12 +30255,12 @@
     <row r="148" ht="20" customHeight="1">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>221616</t>
+          <t>221608</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>محمد عمر عبدالباري عبدالواحد</t>
+          <t>فريد محمد فراس قاوجي</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -30275,7 +30275,7 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>221616@med.asu.edu.eg</t>
+          <t>221608@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F148" s="4" t="inlineStr">
@@ -30457,12 +30457,12 @@
     <row r="149" ht="20" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>221621</t>
+          <t>221615</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>عبدالرحمن مصطفى حاج حسين</t>
+          <t>علي خالد محمد ابو عيده</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -30477,7 +30477,7 @@
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>221621@med.asu.edu.eg</t>
+          <t>221615@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F149" s="4" t="inlineStr">
@@ -30659,12 +30659,12 @@
     <row r="150" ht="20" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>221624</t>
+          <t>221616</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>ميسم الزاكى الياس احمدون</t>
+          <t>محمد عمر عبدالباري عبدالواحد</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -30679,7 +30679,7 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>221624@med.asu.edu.eg</t>
+          <t>221616@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr">
@@ -30861,12 +30861,12 @@
     <row r="151" ht="20" customHeight="1">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>221627</t>
+          <t>221621</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>جودى عدنان رسلان</t>
+          <t>عبدالرحمن مصطفى حاج حسين</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -30881,7 +30881,7 @@
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>221627@med.asu.edu.eg</t>
+          <t>221621@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F151" s="4" t="inlineStr">
@@ -31063,12 +31063,12 @@
     <row r="152" ht="20" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>221628</t>
+          <t>221624</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>ريم احمد غزال</t>
+          <t>ميسم الزاكى الياس احمدون</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -31083,7 +31083,7 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>221628@med.asu.edu.eg</t>
+          <t>221624@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F152" s="4" t="inlineStr">
@@ -31265,12 +31265,12 @@
     <row r="153" ht="20" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>221633</t>
+          <t>221627</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>نمارق شيخ الدين محمد ادم</t>
+          <t>جودى عدنان رسلان</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
@@ -31285,7 +31285,7 @@
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>221633@med.asu.edu.eg</t>
+          <t>221627@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F153" s="4" t="inlineStr">
@@ -31467,12 +31467,12 @@
     <row r="154" ht="20" customHeight="1">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>221642</t>
+          <t>221628</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>فاطمة محمد عبد الله عبد الرازق</t>
+          <t>ريم احمد غزال</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -31487,7 +31487,7 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>221642@med.asu.edu.eg</t>
+          <t>221628@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F154" s="4" t="inlineStr">
@@ -31669,12 +31669,12 @@
     <row r="155" ht="20" customHeight="1">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>221652</t>
+          <t>221633</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>يامن احمد محمد خالد صب لبن</t>
+          <t>نمارق شيخ الدين محمد ادم</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
@@ -31689,7 +31689,7 @@
       </c>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>221652@med.asu.edu.eg</t>
+          <t>221633@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F155" s="4" t="inlineStr">
@@ -31871,12 +31871,12 @@
     <row r="156" ht="20" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>221655</t>
+          <t>221642</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>أماني شوقي حسن احمد</t>
+          <t>فاطمة محمد عبد الله عبد الرازق</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -31891,7 +31891,7 @@
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>221655@med.asu.edu.eg</t>
+          <t>221642@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F156" s="4" t="inlineStr">
@@ -32073,12 +32073,12 @@
     <row r="157" ht="20" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>221657</t>
+          <t>221652</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>محمد احمد العطا حمد</t>
+          <t>يامن احمد محمد خالد صب لبن</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
@@ -32093,7 +32093,7 @@
       </c>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>221657@med.asu.edu.eg</t>
+          <t>221652@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F157" s="4" t="inlineStr">
@@ -32275,12 +32275,12 @@
     <row r="158" ht="20" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>221658</t>
+          <t>221655</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>روين محمد أحمد بورجي</t>
+          <t>أماني شوقي حسن احمد</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -32295,7 +32295,7 @@
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>221658@med.asu.edu.eg</t>
+          <t>221655@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F158" s="4" t="inlineStr">
@@ -32477,12 +32477,12 @@
     <row r="159" ht="20" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>221672</t>
+          <t>221658</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>نهى النزير عبدالرحمن الجعلي</t>
+          <t>روين محمد أحمد بورجي</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
@@ -32497,7 +32497,7 @@
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>221672@med.asu.edu.eg</t>
+          <t>221658@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F159" s="4" t="inlineStr">
@@ -35533,12 +35533,12 @@
     <row r="174" ht="20" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>221707</t>
+          <t>221711</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>يمنى فيصل محمد عبدون</t>
+          <t>وسيم رجب محمود حسين عياد</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -35553,7 +35553,7 @@
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>221707@med.asu.edu.eg</t>
+          <t>221711@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F174" s="8" t="inlineStr">
@@ -35737,12 +35737,12 @@
     <row r="175" ht="20" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>221711</t>
+          <t>221712</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>وسيم رجب محمود حسين عياد</t>
+          <t>بتول ابراهيم يوسف الزيناتي</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -35757,7 +35757,7 @@
       </c>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>221711@med.asu.edu.eg</t>
+          <t>221712@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F175" s="8" t="inlineStr">
@@ -35941,12 +35941,12 @@
     <row r="176" ht="20" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>221712</t>
+          <t>221713</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>بتول ابراهيم يوسف الزيناتي</t>
+          <t>عبق الطيب الامين عبد الماجد</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -35961,7 +35961,7 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>221712@med.asu.edu.eg</t>
+          <t>221713@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F176" s="8" t="inlineStr">
@@ -36145,12 +36145,12 @@
     <row r="177" ht="20" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>221713</t>
+          <t>221716</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>عبق الطيب الامين عبد الماجد</t>
+          <t>على الحسن</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
@@ -36165,7 +36165,7 @@
       </c>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>221713@med.asu.edu.eg</t>
+          <t>221716@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F177" s="8" t="inlineStr">
@@ -36349,12 +36349,12 @@
     <row r="178" ht="20" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>221716</t>
+          <t>221722</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>على الحسن</t>
+          <t>بتول باسم قاووق</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -36369,7 +36369,7 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>221716@med.asu.edu.eg</t>
+          <t>221722@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F178" s="8" t="inlineStr">
@@ -36553,12 +36553,12 @@
     <row r="179" ht="20" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>221719</t>
+          <t>221729</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>مروان محمد فتحى محمد</t>
+          <t>حسين احمد حسين الحسن</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -36573,7 +36573,7 @@
       </c>
       <c r="E179" s="3" t="inlineStr">
         <is>
-          <t>221719@med.asu.edu.eg</t>
+          <t>221729@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F179" s="8" t="inlineStr">
@@ -36757,12 +36757,12 @@
     <row r="180" ht="20" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>221722</t>
+          <t>221740</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>بتول باسم قاووق</t>
+          <t>عبد الرزاق مهد يوسف</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -36777,7 +36777,7 @@
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>221722@med.asu.edu.eg</t>
+          <t>221740@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F180" s="8" t="inlineStr">
@@ -36961,12 +36961,12 @@
     <row r="181" ht="20" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>221729</t>
+          <t>221745</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>حسين احمد حسين الحسن</t>
+          <t>لينة عبدالعظيم احمد سيد</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -36981,7 +36981,7 @@
       </c>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>221729@med.asu.edu.eg</t>
+          <t>221745@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F181" s="8" t="inlineStr">
@@ -37165,12 +37165,12 @@
     <row r="182" ht="20" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>221740</t>
+          <t>221751</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>عبد الرزاق مهد يوسف</t>
+          <t>محمد محمود درويش ابو سريه</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -37185,7 +37185,7 @@
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>221740@med.asu.edu.eg</t>
+          <t>221751@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F182" s="8" t="inlineStr">
@@ -37369,12 +37369,12 @@
     <row r="183" ht="20" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>221745</t>
+          <t>221752</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>لينة عبدالعظيم احمد سيد</t>
+          <t>نبا ابراهيم الزعبى</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -37389,7 +37389,7 @@
       </c>
       <c r="E183" s="3" t="inlineStr">
         <is>
-          <t>221745@med.asu.edu.eg</t>
+          <t>221752@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F183" s="8" t="inlineStr">
@@ -37573,12 +37573,12 @@
     <row r="184" ht="20" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>221751</t>
+          <t>221641</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>محمد محمود درويش ابو سريه</t>
+          <t>حنين احمد محمد الزق</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -37588,12 +37588,12 @@
       </c>
       <c r="D184" s="3" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>221751@med.asu.edu.eg</t>
+          <t>221641@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F184" s="8" t="inlineStr">
@@ -37777,12 +37777,12 @@
     <row r="185" ht="20" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>221752</t>
+          <t>221657</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>نبا ابراهيم الزعبى</t>
+          <t>محمد احمد العطا حمد</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
@@ -37792,12 +37792,12 @@
       </c>
       <c r="D185" s="3" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E185" s="3" t="inlineStr">
         <is>
-          <t>221752@med.asu.edu.eg</t>
+          <t>221657@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F185" s="8" t="inlineStr">
@@ -37981,12 +37981,12 @@
     <row r="186" ht="20" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>221641</t>
+          <t>221672</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>حنين احمد محمد الزق</t>
+          <t>نهى النزير عبدالرحمن الجعلي</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -38001,7 +38001,7 @@
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>221641@med.asu.edu.eg</t>
+          <t>221672@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F186" s="8" t="inlineStr">
@@ -43693,12 +43693,12 @@
     <row r="214" ht="20" customHeight="1">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>221862</t>
+          <t>221516</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>روعه مراد زكى مراد</t>
+          <t>فاطمه عبدالحفيظ محمد صالح</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -43713,7 +43713,7 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>221862@med.asu.edu.eg</t>
+          <t>221516@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F214" s="8" t="inlineStr">
@@ -43897,12 +43897,12 @@
     <row r="215" ht="20" customHeight="1">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>221872</t>
+          <t>221862</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>رهف الصادق محمد حسن</t>
+          <t>روعه مراد زكى مراد</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
@@ -43917,7 +43917,7 @@
       </c>
       <c r="E215" s="3" t="inlineStr">
         <is>
-          <t>221872@med.asu.edu.eg</t>
+          <t>221862@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F215" s="8" t="inlineStr">
@@ -45325,12 +45325,12 @@
     <row r="222" ht="20" customHeight="1">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>221913</t>
+          <t>221936</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>رشا حسن محمد حاج محمد احمد</t>
+          <t>كنان عبد الرحمن الاحمد الرويلي</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -45345,7 +45345,7 @@
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>221913@med.asu.edu.eg</t>
+          <t>221936@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F222" s="8" t="inlineStr">
@@ -45529,12 +45529,12 @@
     <row r="223" ht="20" customHeight="1">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>221936</t>
+          <t>221939</t>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>كنان عبد الرحمن الاحمد الرويلي</t>
+          <t>لبنى محمد الحاج عباس ابنعوف</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
@@ -45549,7 +45549,7 @@
       </c>
       <c r="E223" s="3" t="inlineStr">
         <is>
-          <t>221936@med.asu.edu.eg</t>
+          <t>221939@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F223" s="8" t="inlineStr">
@@ -45733,12 +45733,12 @@
     <row r="224" ht="20" customHeight="1">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>221939</t>
+          <t>221956</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>لبنى محمد الحاج عباس ابنعوف</t>
+          <t>خالد محمد ترياقى</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
@@ -45753,7 +45753,7 @@
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>221939@med.asu.edu.eg</t>
+          <t>221956@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F224" s="8" t="inlineStr">
@@ -45937,12 +45937,12 @@
     <row r="225" ht="20" customHeight="1">
       <c r="A225" s="3" t="inlineStr">
         <is>
-          <t>221956</t>
+          <t>221957</t>
         </is>
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>خالد محمد ترياقى</t>
+          <t>باسل احمد محمد احمد</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
@@ -45957,7 +45957,7 @@
       </c>
       <c r="E225" s="3" t="inlineStr">
         <is>
-          <t>221956@med.asu.edu.eg</t>
+          <t>221957@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F225" s="8" t="inlineStr">
@@ -46141,12 +46141,12 @@
     <row r="226" ht="20" customHeight="1">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>221957</t>
+          <t>221961</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>باسل احمد محمد احمد</t>
+          <t>ياسمين بابكر موسى بابكر</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
@@ -46161,7 +46161,7 @@
       </c>
       <c r="E226" s="3" t="inlineStr">
         <is>
-          <t>221957@med.asu.edu.eg</t>
+          <t>221961@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F226" s="8" t="inlineStr">
@@ -46345,12 +46345,12 @@
     <row r="227" ht="20" customHeight="1">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>221961</t>
+          <t>221967</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>ياسمين بابكر موسى بابكر</t>
+          <t>حسن اسماعيل اشحيبر</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
@@ -46365,7 +46365,7 @@
       </c>
       <c r="E227" s="3" t="inlineStr">
         <is>
-          <t>221961@med.asu.edu.eg</t>
+          <t>221967@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F227" s="8" t="inlineStr">
@@ -46549,12 +46549,12 @@
     <row r="228" ht="20" customHeight="1">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>221967</t>
+          <t>221974</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>حسن اسماعيل اشحيبر</t>
+          <t>ابرار كمال محمد عمر</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
@@ -46569,7 +46569,7 @@
       </c>
       <c r="E228" s="3" t="inlineStr">
         <is>
-          <t>221967@med.asu.edu.eg</t>
+          <t>221974@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F228" s="8" t="inlineStr">
@@ -46753,12 +46753,12 @@
     <row r="229" ht="20" customHeight="1">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>221974</t>
+          <t>221994</t>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>ابرار كمال محمد عمر</t>
+          <t>رنا محمد مصطفى على</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
@@ -46773,7 +46773,7 @@
       </c>
       <c r="E229" s="3" t="inlineStr">
         <is>
-          <t>221974@med.asu.edu.eg</t>
+          <t>221994@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F229" s="8" t="inlineStr">
@@ -46957,12 +46957,12 @@
     <row r="230" ht="20" customHeight="1">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>221994</t>
+          <t>221999</t>
         </is>
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t>رنا محمد مصطفى على</t>
+          <t>منذر عبد الله بلال مضوى</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
@@ -46977,7 +46977,7 @@
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
-          <t>221994@med.asu.edu.eg</t>
+          <t>221999@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F230" s="8" t="inlineStr">
@@ -47161,12 +47161,12 @@
     <row r="231" ht="20" customHeight="1">
       <c r="A231" s="3" t="inlineStr">
         <is>
-          <t>221999</t>
+          <t>222009</t>
         </is>
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t>منذر عبد الله بلال مضوى</t>
+          <t>حسن عبد العزيز حسن عبد المجيد</t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr">
@@ -47181,7 +47181,7 @@
       </c>
       <c r="E231" s="3" t="inlineStr">
         <is>
-          <t>221999@med.asu.edu.eg</t>
+          <t>222009@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F231" s="8" t="inlineStr">
@@ -47365,12 +47365,12 @@
     <row r="232" ht="20" customHeight="1">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>222009</t>
+          <t>222048</t>
         </is>
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t>حسن عبد العزيز حسن عبد المجيد</t>
+          <t>المعتصم بالله مصطفى محمد على</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
@@ -47385,7 +47385,7 @@
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t>222009@med.asu.edu.eg</t>
+          <t>222048@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F232" s="8" t="inlineStr">
@@ -47569,12 +47569,12 @@
     <row r="233" ht="20" customHeight="1">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>222048</t>
+          <t>222050</t>
         </is>
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t>المعتصم بالله مصطفى محمد على</t>
+          <t>هاجر طة عبد الحميد طه</t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr">
@@ -47589,7 +47589,7 @@
       </c>
       <c r="E233" s="3" t="inlineStr">
         <is>
-          <t>222048@med.asu.edu.eg</t>
+          <t>222050@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F233" s="8" t="inlineStr">
@@ -47773,12 +47773,12 @@
     <row r="234" ht="20" customHeight="1">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>222050</t>
+          <t>222060</t>
         </is>
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t>هاجر طة عبد الحميد طه</t>
+          <t>عثمان عبد الخالق عثمان عبده</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
@@ -47793,7 +47793,7 @@
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t>222050@med.asu.edu.eg</t>
+          <t>222060@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F234" s="8" t="inlineStr">
@@ -47977,12 +47977,12 @@
     <row r="235" ht="20" customHeight="1">
       <c r="A235" s="3" t="inlineStr">
         <is>
-          <t>222060</t>
+          <t>222062</t>
         </is>
       </c>
       <c r="B235" s="3" t="inlineStr">
         <is>
-          <t>عثمان عبد الخالق عثمان عبده</t>
+          <t>محمد المصطفى ادم داؤد على</t>
         </is>
       </c>
       <c r="C235" s="3" t="inlineStr">
@@ -47997,7 +47997,7 @@
       </c>
       <c r="E235" s="3" t="inlineStr">
         <is>
-          <t>222060@med.asu.edu.eg</t>
+          <t>222062@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F235" s="8" t="inlineStr">
@@ -48181,12 +48181,12 @@
     <row r="236" ht="20" customHeight="1">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>222062</t>
+          <t>222064</t>
         </is>
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>محمد المصطفى ادم داؤد على</t>
+          <t>ميسره احمد عمر احمد</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
@@ -48201,7 +48201,7 @@
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
-          <t>222062@med.asu.edu.eg</t>
+          <t>222064@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F236" s="8" t="inlineStr">
@@ -48385,12 +48385,12 @@
     <row r="237" ht="20" customHeight="1">
       <c r="A237" s="3" t="inlineStr">
         <is>
-          <t>222064</t>
+          <t>222075</t>
         </is>
       </c>
       <c r="B237" s="3" t="inlineStr">
         <is>
-          <t>ميسره احمد عمر احمد</t>
+          <t>النذير احمد داؤد اسو</t>
         </is>
       </c>
       <c r="C237" s="3" t="inlineStr">
@@ -48405,7 +48405,7 @@
       </c>
       <c r="E237" s="3" t="inlineStr">
         <is>
-          <t>222064@med.asu.edu.eg</t>
+          <t>222075@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F237" s="8" t="inlineStr">
@@ -48589,12 +48589,12 @@
     <row r="238" ht="20" customHeight="1">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>222075</t>
+          <t>222078</t>
         </is>
       </c>
       <c r="B238" s="3" t="inlineStr">
         <is>
-          <t>النذير احمد داؤد اسو</t>
+          <t>صهيب عبد المنعم طه عثمان</t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr">
@@ -48609,7 +48609,7 @@
       </c>
       <c r="E238" s="3" t="inlineStr">
         <is>
-          <t>222075@med.asu.edu.eg</t>
+          <t>222078@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F238" s="8" t="inlineStr">
@@ -48793,12 +48793,12 @@
     <row r="239" ht="20" customHeight="1">
       <c r="A239" s="3" t="inlineStr">
         <is>
-          <t>222078</t>
+          <t>210288</t>
         </is>
       </c>
       <c r="B239" s="3" t="inlineStr">
         <is>
-          <t>صهيب عبد المنعم طه عثمان</t>
+          <t>عمرو اشرف جابر رمضان</t>
         </is>
       </c>
       <c r="C239" s="3" t="inlineStr">
@@ -48808,12 +48808,12 @@
       </c>
       <c r="D239" s="3" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E239" s="3" t="inlineStr">
         <is>
-          <t>222078@med.asu.edu.eg</t>
+          <t>210288@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F239" s="8" t="inlineStr">
@@ -48997,12 +48997,12 @@
     <row r="240" ht="20" customHeight="1">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>210288</t>
+          <t>210301</t>
         </is>
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t>عمرو اشرف جابر رمضان</t>
+          <t>ابانوب ايمن جميل وديع</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr">
@@ -49017,7 +49017,7 @@
       </c>
       <c r="E240" s="3" t="inlineStr">
         <is>
-          <t>210288@med.asu.edu.eg</t>
+          <t>210301@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F240" s="8" t="inlineStr">
@@ -49201,12 +49201,12 @@
     <row r="241" ht="20" customHeight="1">
       <c r="A241" s="3" t="inlineStr">
         <is>
-          <t>210301</t>
+          <t>210306</t>
         </is>
       </c>
       <c r="B241" s="3" t="inlineStr">
         <is>
-          <t>ابانوب ايمن جميل وديع</t>
+          <t>احمد اشرف احمد رجب غزال</t>
         </is>
       </c>
       <c r="C241" s="3" t="inlineStr">
@@ -49221,7 +49221,7 @@
       </c>
       <c r="E241" s="3" t="inlineStr">
         <is>
-          <t>210301@med.asu.edu.eg</t>
+          <t>210306@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F241" s="8" t="inlineStr">
@@ -49405,12 +49405,12 @@
     <row r="242" ht="20" customHeight="1">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>210306</t>
+          <t>210319</t>
         </is>
       </c>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>احمد اشرف احمد رجب غزال</t>
+          <t>احمد سامح جمعه عبد المجيد محمد</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr">
@@ -49425,7 +49425,7 @@
       </c>
       <c r="E242" s="3" t="inlineStr">
         <is>
-          <t>210306@med.asu.edu.eg</t>
+          <t>210319@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F242" s="8" t="inlineStr">
@@ -49609,12 +49609,12 @@
     <row r="243" ht="20" customHeight="1">
       <c r="A243" s="3" t="inlineStr">
         <is>
-          <t>210319</t>
+          <t>210333</t>
         </is>
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
-          <t>احمد سامح جمعه عبد المجيد محمد</t>
+          <t>احمد محمد عبد الجواد مندور هاشم</t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">
@@ -49629,7 +49629,7 @@
       </c>
       <c r="E243" s="3" t="inlineStr">
         <is>
-          <t>210319@med.asu.edu.eg</t>
+          <t>210333@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F243" s="8" t="inlineStr">
@@ -49813,12 +49813,12 @@
     <row r="244" ht="20" customHeight="1">
       <c r="A244" s="3" t="inlineStr">
         <is>
-          <t>210333</t>
+          <t>210334</t>
         </is>
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t>احمد محمد عبد الجواد مندور هاشم</t>
+          <t>احمد محمد عبد المجيد عبد العاطي</t>
         </is>
       </c>
       <c r="C244" s="3" t="inlineStr">
@@ -49833,7 +49833,7 @@
       </c>
       <c r="E244" s="3" t="inlineStr">
         <is>
-          <t>210333@med.asu.edu.eg</t>
+          <t>210334@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F244" s="8" t="inlineStr">
@@ -50017,12 +50017,12 @@
     <row r="245" ht="20" customHeight="1">
       <c r="A245" s="3" t="inlineStr">
         <is>
-          <t>210334</t>
+          <t>210340</t>
         </is>
       </c>
       <c r="B245" s="3" t="inlineStr">
         <is>
-          <t>احمد محمد عبد المجيد عبد العاطي</t>
+          <t>احمد منتصر سيد منتصر احمد</t>
         </is>
       </c>
       <c r="C245" s="3" t="inlineStr">
@@ -50037,7 +50037,7 @@
       </c>
       <c r="E245" s="3" t="inlineStr">
         <is>
-          <t>210334@med.asu.edu.eg</t>
+          <t>210340@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F245" s="8" t="inlineStr">
@@ -50221,12 +50221,12 @@
     <row r="246" ht="20" customHeight="1">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>210340</t>
+          <t>210354</t>
         </is>
       </c>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t>احمد منتصر سيد منتصر احمد</t>
+          <t>اسراء حسني مصطفى احمد</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
@@ -50241,7 +50241,7 @@
       </c>
       <c r="E246" s="3" t="inlineStr">
         <is>
-          <t>210340@med.asu.edu.eg</t>
+          <t>210354@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F246" s="8" t="inlineStr">
@@ -50425,12 +50425,12 @@
     <row r="247" ht="20" customHeight="1">
       <c r="A247" s="3" t="inlineStr">
         <is>
-          <t>210354</t>
+          <t>210385</t>
         </is>
       </c>
       <c r="B247" s="3" t="inlineStr">
         <is>
-          <t>اسراء حسني مصطفى احمد</t>
+          <t>ايمان طارق مصطفى سيد احمد</t>
         </is>
       </c>
       <c r="C247" s="3" t="inlineStr">
@@ -50445,7 +50445,7 @@
       </c>
       <c r="E247" s="3" t="inlineStr">
         <is>
-          <t>210354@med.asu.edu.eg</t>
+          <t>210385@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F247" s="8" t="inlineStr">
@@ -50629,12 +50629,12 @@
     <row r="248" ht="20" customHeight="1">
       <c r="A248" s="3" t="inlineStr">
         <is>
-          <t>210385</t>
+          <t>210387</t>
         </is>
       </c>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t>ايمان طارق مصطفى سيد احمد</t>
+          <t>ايمان محمد يوسف محمد</t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr">
@@ -50649,7 +50649,7 @@
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t>210385@med.asu.edu.eg</t>
+          <t>210387@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F248" s="8" t="inlineStr">
@@ -50833,12 +50833,12 @@
     <row r="249" ht="20" customHeight="1">
       <c r="A249" s="3" t="inlineStr">
         <is>
-          <t>210387</t>
+          <t>210401</t>
         </is>
       </c>
       <c r="B249" s="3" t="inlineStr">
         <is>
-          <t>ايمان محمد يوسف محمد</t>
+          <t>بافلى عماد غبريال مترى</t>
         </is>
       </c>
       <c r="C249" s="3" t="inlineStr">
@@ -50853,7 +50853,7 @@
       </c>
       <c r="E249" s="3" t="inlineStr">
         <is>
-          <t>210387@med.asu.edu.eg</t>
+          <t>210401@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F249" s="8" t="inlineStr">
@@ -51037,12 +51037,12 @@
     <row r="250" ht="20" customHeight="1">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>210401</t>
+          <t>210421</t>
         </is>
       </c>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t>بافلى عماد غبريال مترى</t>
+          <t>توماس مرجان فوزى شكر الله</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
@@ -51057,7 +51057,7 @@
       </c>
       <c r="E250" s="3" t="inlineStr">
         <is>
-          <t>210401@med.asu.edu.eg</t>
+          <t>210421@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F250" s="8" t="inlineStr">
@@ -51241,12 +51241,12 @@
     <row r="251" ht="20" customHeight="1">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>210421</t>
+          <t>210435</t>
         </is>
       </c>
       <c r="B251" s="3" t="inlineStr">
         <is>
-          <t>توماس مرجان فوزى شكر الله</t>
+          <t>حسن محمد حسن مرسى</t>
         </is>
       </c>
       <c r="C251" s="3" t="inlineStr">
@@ -51261,7 +51261,7 @@
       </c>
       <c r="E251" s="3" t="inlineStr">
         <is>
-          <t>210421@med.asu.edu.eg</t>
+          <t>210435@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F251" s="8" t="inlineStr">
@@ -51445,12 +51445,12 @@
     <row r="252" ht="20" customHeight="1">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>210435</t>
+          <t>210438</t>
         </is>
       </c>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>حسن محمد حسن مرسى</t>
+          <t>حسينى طارق حسينى محمد الطويل</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
@@ -51465,7 +51465,7 @@
       </c>
       <c r="E252" s="3" t="inlineStr">
         <is>
-          <t>210435@med.asu.edu.eg</t>
+          <t>210438@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F252" s="8" t="inlineStr">
@@ -51649,12 +51649,12 @@
     <row r="253" ht="20" customHeight="1">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>210438</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="B253" s="3" t="inlineStr">
         <is>
-          <t>حسينى طارق حسينى محمد الطويل</t>
+          <t>شهد صلاح جعفر الشيخ ادريس</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr">
@@ -51669,7 +51669,7 @@
       </c>
       <c r="E253" s="3" t="inlineStr">
         <is>
-          <t>210438@med.asu.edu.eg</t>
+          <t>221582@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F253" s="8" t="inlineStr">
@@ -65623,7 +65623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -65635,7 +65635,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
@@ -65744,8 +65744,264 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>221516</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>فاطمه عبدالحفيظ محمد صالح</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>B1C1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>New Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>221582</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>شهد صلاح جعفر الشيخ ادريس</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>New Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>221657</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>محمد احمد العطا حمد</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>New Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>221672</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>نهى النزير عبدالرحمن الجعلي</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>New Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>221707</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>يمنى فيصل محمد عبدون</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>B1C1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>New Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>221719</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>مروان محمد فتحى محمد</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B1C1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>New Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>221872</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>رهف الصادق محمد حسن</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>B1C1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>New Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>221913</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>رشا حسن محمد حاج محمد احمد</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>B1C1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>New Transfer</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G3"/>
+  <autoFilter ref="A1:G11"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>